--- a/biology/Zoologie/Hansenochrus_gladiator/Hansenochrus_gladiator.xlsx
+++ b/biology/Zoologie/Hansenochrus_gladiator/Hansenochrus_gladiator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hansenochrus gladiator est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Suriname[1]. Elle se rencontre vers Paramaribo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Suriname. Elle se rencontre vers Paramaribo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Remy, 1961 : Sur l'écologie des Schizomides (Arachn. Uropyges) de mes récoltes, avec description de trois Schizomus nouveaux, capturés par J. van der Drift au Surinam. Bulletin du Muséum National d'Histoire Naturelle, Paris, sér. 2, vol. 33, no 4, p. 500-511 (texte intégral).</t>
         </is>
